--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59702A6-D9ED-4B25-AF9B-BFEF2C15A256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44006146-F34F-4D95-B8FE-F042EEEE7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Checkbox Selection</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Verify selecting and deselecting checkboxes after pressing the expand/collapse button.</t>
+  </si>
+  <si>
+    <t>Navigate to the Check Box page</t>
+  </si>
+  <si>
+    <t>1. Expand the Home Folder.
+2. Click the checkbox of "Home" checkbox.
+3. Click the checkbox of "Documents" checkbox.
+4. Verify checked state of checkbox.</t>
+  </si>
+  <si>
+    <t>Selected/deselected items should display in the output list.</t>
   </si>
 </sst>
 </file>
@@ -111,17 +135,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,22 +436,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -435,7 +474,7 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -461,8 +500,39 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44006146-F34F-4D95-B8FE-F042EEEE7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3457F3D-1CA2-4FD4-82A2-0025A821ED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -85,13 +85,24 @@
     <t>Navigate to the Check Box page</t>
   </si>
   <si>
+    <t>Selected/deselected items should display in the output list.</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Checkbox State</t>
+  </si>
+  <si>
+    <t>Verify checkbox state changes correctly after pressing checking/unchecking.</t>
+  </si>
+  <si>
     <t>1. Expand the Home Folder.
 2. Click the checkbox of "Home" checkbox.
-3. Click the checkbox of "Documents" checkbox.
-4. Verify checked state of checkbox.</t>
-  </si>
-  <si>
-    <t>Selected/deselected items should display in the output list.</t>
+3. Click the checkbox of "Documents" checkbox.</t>
+  </si>
+  <si>
+    <t>Checked state of checkbox should be displayed correctly.</t>
   </si>
 </sst>
 </file>
@@ -436,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -518,12 +529,35 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3457F3D-1CA2-4FD4-82A2-0025A821ED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457462CA-9B9C-47F6-9952-6A62519A426A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -103,6 +103,25 @@
   </si>
   <si>
     <t>Checked state of checkbox should be displayed correctly.</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Verify Radio Button selected state after selecting any of the radio button.</t>
+  </si>
+  <si>
+    <t>Navigate to the Radio Button page</t>
+  </si>
+  <si>
+    <t>Radio Button State</t>
+  </si>
+  <si>
+    <t>1. Click the 'Yes' Radio Button.
+2. Click the 'Impressive' Radio Button.</t>
+  </si>
+  <si>
+    <t>Only one radio button should appear selected at once.</t>
   </si>
 </sst>
 </file>
@@ -146,13 +165,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,11 +469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,11 +481,11 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -485,7 +507,7 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -558,6 +580,29 @@
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457462CA-9B9C-47F6-9952-6A62519A426A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E0C70-C208-4F93-A9FC-E6F88C62E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -122,6 +122,33 @@
   </si>
   <si>
     <t>Only one radio button should appear selected at once.</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Add, Edit, and Delete Records</t>
+  </si>
+  <si>
+    <t>Verify that a user can add, edit, and delete records in the table.</t>
+  </si>
+  <si>
+    <t>Navigate to Web Tables page</t>
+  </si>
+  <si>
+    <t>New record should be added to the table.
+Record should appear updated correctly on editing.
+Record should be removed correctly from the table.</t>
+  </si>
+  <si>
+    <t>1.Click the "Add" button.
+2. Fill in all required fields.
+3. Click the "Submit" button.
+4. Locate the newly added record.
+5.Click the "Edit" button.
+Modify a field (e.g., Salary) and click "Submit".
+6. Locate the same record.
+7. Click the "Delete" button.</t>
   </si>
 </sst>
 </file>
@@ -469,17 +496,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -606,6 +633,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E0C70-C208-4F93-A9FC-E6F88C62E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0951A654-8EAB-401C-AAB8-A537D3719A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -149,6 +149,45 @@
 Modify a field (e.g., Salary) and click "Submit".
 6. Locate the same record.
 7. Click the "Delete" button.</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Search and Reset Functionality</t>
+  </si>
+  <si>
+    <t>Verify that the search and reset functionalities work correctly.</t>
+  </si>
+  <si>
+    <t>1. Enter a search term (e.g., First Name or Department).
+2.Verify that only matching records are displayed.
+3. Clear the search input field and verify that the table displays all records.
+4. Test case-insensitivity by searching with uppercase and lowercase terms (e.g., "JOHN" vs. "john").</t>
+  </si>
+  <si>
+    <t>The table filters records accurately based on the search term.
+Clearing the search resets the table to show all records.
+Search functionality is case insensitive.</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Verify that sorting works correctly.</t>
+  </si>
+  <si>
+    <t>1. Click any column header to apply sorting.
+2. Verify that tab;e is sortedin ascending and descending order for each column.</t>
+  </si>
+  <si>
+    <t>Sorting work as expected and coirrect records are displayed.</t>
+  </si>
+  <si>
+    <t>TC008</t>
   </si>
 </sst>
 </file>
@@ -496,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +691,60 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0951A654-8EAB-401C-AAB8-A537D3719A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337EB6AE-D9FD-47F7-BB16-242F044900B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -180,14 +180,31 @@
     <t>Verify that sorting works correctly.</t>
   </si>
   <si>
+    <t>Sorting work as expected and coirrect records are displayed.</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Click Functionality</t>
+  </si>
+  <si>
+    <t>Verify that Right Click, Double Click and Single Click works correctly.</t>
+  </si>
+  <si>
+    <t>Navigate to Buttons Page.</t>
+  </si>
+  <si>
+    <t>1. Double click the "Double Click Me" button.
+2. Right click the "Right Click Me" button.
+3. Click the "Click Me" button.</t>
+  </si>
+  <si>
     <t>1. Click any column header to apply sorting.
-2. Verify that tab;e is sortedin ascending and descending order for each column.</t>
-  </si>
-  <si>
-    <t>Sorting work as expected and coirrect records are displayed.</t>
-  </si>
-  <si>
-    <t>TC008</t>
+2. Verify that table is sorted in ascending and descending order.</t>
+  </si>
+  <si>
+    <t>The success message should be displayed.</t>
   </si>
 </sst>
 </file>
@@ -538,8 +555,8 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,18 +749,36 @@
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337EB6AE-D9FD-47F7-BB16-242F044900B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580604F6-F644-4AE5-AEB8-FBA712D4443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -205,6 +205,31 @@
   </si>
   <si>
     <t>The success message should be displayed.</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Navigation and API links functionality</t>
+  </si>
+  <si>
+    <t>Verify that navigation links open correctly and API links send the correct response.</t>
+  </si>
+  <si>
+    <t>Navigate to Links page.</t>
+  </si>
+  <si>
+    <t>1. Click 'Home' link.
+2. Switch to new tab and verify URL.
+3. Close the new tab and return to the main page.
+4. Repeat step 1-3 for the second dynamic link.
+5. Click the 'Created' Link.
+6. Verify the corresponding status code and message.
+7. Repeat 5-6 for all API links.</t>
+  </si>
+  <si>
+    <t>Navigation links open in a new tab with the correct URL.
+API links display the expected status codes and messages.</t>
   </si>
 </sst>
 </file>
@@ -552,11 +577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +806,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580604F6-F644-4AE5-AEB8-FBA712D4443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F8BC0-33F4-4BB5-835B-CF3F015195A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -230,6 +230,42 @@
   <si>
     <t>Navigation links open in a new tab with the correct URL.
 API links display the expected status codes and messages.</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Valid and Broken Images</t>
+  </si>
+  <si>
+    <t>Valid and Broken Links</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>Verify that both broken and non-broken images are correctly identified on the page.</t>
+  </si>
+  <si>
+    <t>Navigate to Broken Links-Images page.</t>
+  </si>
+  <si>
+    <t>Verify that the valid link redirects to the correct page and the broken link results in an error page.</t>
+  </si>
+  <si>
+    <t>1. Check whether the  'naturalWidth' Attribute is equal to 0 or not.</t>
+  </si>
+  <si>
+    <t>1. Open the links with Ctrl+Click.
+2. Verify the response code.</t>
+  </si>
+  <si>
+    <t>The valid image should have a naturalWidth greater than 0, meaning it is displayed correctly.
+The broken image should have a naturalWidth of 0, indicating it is not displayed.</t>
+  </si>
+  <si>
+    <t>The valid link should open in a new tab and load successfully with an HTTP 200 status code.
+The broken link should open in a new tab and return an HTTP 500 status code (indicating an error page).</t>
   </si>
 </sst>
 </file>
@@ -577,19 +613,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -826,6 +862,52 @@
         <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F8BC0-33F4-4BB5-835B-CF3F015195A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF21893E-91E0-4489-B225-5C2A0BA89B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -264,8 +264,42 @@
 The broken image should have a naturalWidth of 0, indicating it is not displayed.</t>
   </si>
   <si>
-    <t>The valid link should open in a new tab and load successfully with an HTTP 200 status code.
-The broken link should open in a new tab and return an HTTP 500 status code (indicating an error page).</t>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>Download Functionality</t>
+  </si>
+  <si>
+    <t>Validate that a user can successfully upload a file on the DemoQA upload page.</t>
+  </si>
+  <si>
+    <t>Validate that a user can successfully download a file from the DemoQA download page.</t>
+  </si>
+  <si>
+    <t>Navigate to Upload And Download page</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>Upload Functionality</t>
+  </si>
+  <si>
+    <t>The file should be successfully downloaded and present in the Downloads folder after clicking the button.
+If the file is not found within the timeout period, the test should fail.</t>
+  </si>
+  <si>
+    <t>The uploaded file name should be displayed on the page, confirming a successful upload.
+ If the file name is not displayed, the test should fail.</t>
+  </si>
+  <si>
+    <t>1. Click the "Download" button.
+2. Vefify whether file exist in the Downloads folder or not.</t>
+  </si>
+  <si>
+    <t>1. Click the "Choose File" button.
+2. Select any file to upload.
+3.Verify whether upload path is displayed or not.</t>
   </si>
 </sst>
 </file>
@@ -613,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -904,10 +938,54 @@
       <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Test Cases/Test Case.xlsx
+++ b/Test Cases/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.Bitoni\IdeaProjects\SeleniumJavaAutomationFramework\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF21893E-91E0-4489-B225-5C2A0BA89B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36980500-1AF2-45B1-80F3-CE2CFF480EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -300,6 +300,62 @@
     <t>1. Click the "Choose File" button.
 2. Select any file to upload.
 3.Verify whether upload path is displayed or not.</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>Enable Functionality</t>
+  </si>
+  <si>
+    <t>Validate that button enables successfully after 5 seconds.</t>
+  </si>
+  <si>
+    <t>Navigate to Dynamic properties page.</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Color Change Functionlaity</t>
+  </si>
+  <si>
+    <t>Validate that button text color changes successfully after 5 seconds.</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>1. Open the page.
+2. Verify that button is in disabled.
+3. Verify that button enables after 5 seonds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button should be disabled initially and become enabled after 5 seconds.
+</t>
+  </si>
+  <si>
+    <t>Visible Functionality</t>
+  </si>
+  <si>
+    <t>1. Open the page.
+2. Verify that button text color is default.
+3. Verify that button text color changes after 5 seconds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button’s color should change dynamically after a few seconds.
+</t>
+  </si>
+  <si>
+    <t>Validate that button is visible after 5 seconds</t>
+  </si>
+  <si>
+    <t>The button should be invisible initially and become visible after 5 seconds.</t>
+  </si>
+  <si>
+    <t>1. Open the page.
+2. Vefify that button is invisible initially.
+3. Verify that button is visible after 5 seconds.</t>
   </si>
 </sst>
 </file>
@@ -647,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,6 +1045,66 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
